--- a/input/resources/source-data/capstatements-spreadsheets/alert-initiator.xlsx
+++ b/input/resources/source-data/capstatements-spreadsheets/alert-initiator.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-Notifications\source\resources\source-data\capstatements-spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-Notifications\input\resources\source-data\capstatements-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398C0084-3D34-45DF-A48F-F9E685531CE7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE5B36C-E286-435C-AF95-8A3BDC8CA479}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-465" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="765" yWindow="660" windowWidth="25200" windowHeight="13425" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="meta" sheetId="1" r:id="rId1"/>
-    <sheet name="igs" sheetId="10" r:id="rId2"/>
-    <sheet name="profiles" sheetId="2" r:id="rId3"/>
-    <sheet name="resources" sheetId="4" r:id="rId4"/>
-    <sheet name="ops" sheetId="5" r:id="rId5"/>
-    <sheet name="interactions" sheetId="6" r:id="rId6"/>
-    <sheet name="rest_interactions" sheetId="11" r:id="rId7"/>
-    <sheet name="sps" sheetId="7" r:id="rId8"/>
-    <sheet name="sp_combos" sheetId="8" r:id="rId9"/>
+    <sheet name="config" sheetId="12" r:id="rId1"/>
+    <sheet name="meta" sheetId="1" r:id="rId2"/>
+    <sheet name="igs" sheetId="10" r:id="rId3"/>
+    <sheet name="profiles" sheetId="2" r:id="rId4"/>
+    <sheet name="resources" sheetId="4" r:id="rId5"/>
+    <sheet name="ops" sheetId="5" r:id="rId6"/>
+    <sheet name="interactions" sheetId="6" r:id="rId7"/>
+    <sheet name="rest_interactions" sheetId="11" r:id="rId8"/>
+    <sheet name="sps" sheetId="7" r:id="rId9"/>
+    <sheet name="sp_combos" sheetId="8" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sp_combos!$B$1:$B$81</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">sps!$A$1:$AB$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sp_combos!$B$1:$B$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sps!$A$1:$AB$92</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="154">
   <si>
     <t>Element</t>
   </si>
@@ -356,16 +357,7 @@
     <t>version</t>
   </si>
   <si>
-    <t>0.1.0</t>
-  </si>
-  <si>
     <t>fhirVersion</t>
-  </si>
-  <si>
-    <t>4.0.0</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|3.1.0</t>
   </si>
   <si>
     <t>This CapabilityStatement describes the expected capabilities of a client that is capable of sending a Da Vinci Unsolicited Notification transacted with the `$process-message` operation.</t>
@@ -469,21 +461,12 @@
 1. Identify the Da Vinci or US Core profiles supported as part of the FHIR `meta.profile` attribute for each instance.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/ImplementationGuide/hl7.fhir.us.davinci-alerts|0.1.0</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/notifications-messageheader</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/notifications-bundle</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/notifications-messagedefinition</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/notifications-graphdefinition</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/admit-notification-messageheader</t>
   </si>
   <si>
@@ -497,6 +480,72 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/admit-discharge-notification-encounter</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-Notifications/input/</t>
+  </si>
+  <si>
+    <t>packagepath</t>
+  </si>
+  <si>
+    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-Notifications/output/</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>Da Vinci</t>
+  </si>
+  <si>
+    <t>canon</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-alerts/</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>HL7 International - Infrastructure and Messaging Work Group</t>
+  </si>
+  <si>
+    <t>publishersystem</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>publishervalue</t>
+  </si>
+  <si>
+    <t>http://www.hl7.org/Special/committees/inm/index.cfm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|3.1.1</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-alerts/ImplementationGuide/hl7.fhir.us.davinci-alerts|1.0.0</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/notifications-messagedefinition</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/notifications-graphdefinition</t>
+  </si>
+  <si>
+    <t>!MessageDefinition</t>
+  </si>
+  <si>
+    <t>!GraphDefinition</t>
   </si>
 </sst>
 </file>
@@ -969,11 +1018,653 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FE7B3C-655A-420A-A582-37B1D34DD578}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:P82"/>
+  <sheetViews>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G61" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G87" sqref="G87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27" style="1" customWidth="1"/>
+    <col min="8" max="8" width="84.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="68.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
+      <c r="B2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="H11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="H13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="H22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="3:10">
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="3:10">
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="3:10">
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="3:10" s="1" customFormat="1">
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="3:10">
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="3:10" s="1" customFormat="1">
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="3:10" s="1" customFormat="1">
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="3:10" s="1" customFormat="1">
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="3:10" s="1" customFormat="1" ht="15.75">
+      <c r="H41" s="5"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="3:10" s="1" customFormat="1" ht="15.75">
+      <c r="H42" s="5"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="3:10" s="1" customFormat="1" ht="15.75">
+      <c r="H43" s="5"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="3:10" s="1" customFormat="1">
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="3:10" s="1" customFormat="1">
+      <c r="C45" s="11"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="3:10" s="1" customFormat="1">
+      <c r="C46" s="11"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="3:10" s="1" customFormat="1">
+      <c r="C47" s="11"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="3:10" s="1" customFormat="1">
+      <c r="C48" s="11"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="3:10" s="1" customFormat="1">
+      <c r="C49" s="11"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="3:10" s="1" customFormat="1">
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="3:10" s="1" customFormat="1">
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="3:10" s="1" customFormat="1">
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="3:10" s="1" customFormat="1">
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="3:10" s="1" customFormat="1">
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="3:10" s="1" customFormat="1">
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="3:10" s="1" customFormat="1">
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="3:10" s="1" customFormat="1">
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="3:10" s="1" customFormat="1">
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="3:10" s="1" customFormat="1">
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="3:10" s="1" customFormat="1">
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="3:10" s="1" customFormat="1">
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="3:10" s="1" customFormat="1">
+      <c r="C62" s="11"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="3:10" s="1" customFormat="1">
+      <c r="C63" s="11"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" spans="3:10" s="1" customFormat="1">
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+    </row>
+    <row r="65" spans="3:16" s="1" customFormat="1">
+      <c r="C65" s="11"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+    </row>
+    <row r="66" spans="3:16" s="1" customFormat="1">
+      <c r="C66" s="11"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+    </row>
+    <row r="67" spans="3:16" s="1" customFormat="1">
+      <c r="C67" s="11"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+    </row>
+    <row r="68" spans="3:16" s="1" customFormat="1">
+      <c r="C68" s="11"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+    </row>
+    <row r="69" spans="3:16" s="1" customFormat="1">
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+    </row>
+    <row r="70" spans="3:16" ht="15.75">
+      <c r="C70" s="10"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+    </row>
+    <row r="71" spans="3:16" s="1" customFormat="1">
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+    </row>
+    <row r="72" spans="3:16" s="1" customFormat="1">
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+    </row>
+    <row r="73" spans="3:16" s="1" customFormat="1">
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+    </row>
+    <row r="74" spans="3:16" s="1" customFormat="1">
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" spans="3:16" s="1" customFormat="1">
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+    </row>
+    <row r="76" spans="3:16" s="1" customFormat="1">
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+    </row>
+    <row r="77" spans="3:16" s="1" customFormat="1">
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+    </row>
+    <row r="78" spans="3:16" s="1" customFormat="1">
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="3:16" s="1" customFormat="1" ht="15.75">
+      <c r="H79" s="5"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="5"/>
+    </row>
+    <row r="80" spans="3:16" s="1" customFormat="1">
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+    </row>
+    <row r="81" spans="8:10" s="1" customFormat="1">
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+    </row>
+    <row r="82" spans="8:10" s="1" customFormat="1">
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -995,7 +1686,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1">
@@ -1003,15 +1694,15 @@
         <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" customHeight="1">
@@ -1019,7 +1710,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1027,7 +1718,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1043,7 +1734,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="103.5" customHeight="1">
@@ -1059,12 +1750,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1088,7 +1779,7 @@
         <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -1099,12 +1790,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1131,25 +1822,25 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -1160,84 +1851,84 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>54</v>
@@ -1249,16 +1940,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -1315,7 +2006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W39"/>
   <sheetViews>
@@ -1323,7 +2014,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1413,7 +2104,7 @@
     </row>
     <row r="2" spans="1:23" ht="15.75" thickTop="1">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
@@ -1429,7 +2120,7 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>54</v>
@@ -1437,7 +2128,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>54</v>
@@ -1446,13 +2137,13 @@
     </row>
     <row r="6" spans="1:23" ht="45">
       <c r="A6" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="45">
@@ -1463,73 +2154,73 @@
         <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="45">
       <c r="A8" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="45">
       <c r="A9" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="45">
       <c r="A10" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="45">
       <c r="A11" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="45">
       <c r="A12" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="45">
       <c r="A13" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="20:23" ht="18">
@@ -1546,7 +2237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -1582,19 +2273,19 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1">
       <c r="A2" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1606,7 +2297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
@@ -1632,10 +2323,10 @@
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>85</v>
@@ -1644,10 +2335,10 @@
         <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>64</v>
@@ -1854,7 +2545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D418CE29-40DC-476E-89CD-A42CEC26847E}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1889,15 +2580,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AB93"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F87" sqref="F87"/>
+      <selection pane="bottomRight" activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
@@ -2547,567 +3238,4 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:P82"/>
-  <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G61" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G87" sqref="G87"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27" style="1" customWidth="1"/>
-    <col min="8" max="8" width="84.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="68.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
-      <c r="B2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="B3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="B7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="B8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="B10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="H11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="H13" s="5"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="H22" s="5"/>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="3:10">
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="3:10">
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="3:10">
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="3:10" s="1" customFormat="1">
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="3:10">
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="3:10" s="1" customFormat="1">
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="3:10" s="1" customFormat="1">
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="3:10" s="1" customFormat="1">
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="3:10" s="1" customFormat="1" ht="15.75">
-      <c r="H41" s="5"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="3:10" s="1" customFormat="1" ht="15.75">
-      <c r="H42" s="5"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="3:10" s="1" customFormat="1" ht="15.75">
-      <c r="H43" s="5"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="3:10" s="1" customFormat="1">
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="3:10" s="1" customFormat="1">
-      <c r="C45" s="11"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-    </row>
-    <row r="46" spans="3:10" s="1" customFormat="1">
-      <c r="C46" s="11"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="3:10" s="1" customFormat="1">
-      <c r="C47" s="11"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="3:10" s="1" customFormat="1">
-      <c r="C48" s="11"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-    </row>
-    <row r="49" spans="3:10" s="1" customFormat="1">
-      <c r="C49" s="11"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="3:10" s="1" customFormat="1">
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="3:10" s="1" customFormat="1">
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="3:10" s="1" customFormat="1">
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-    </row>
-    <row r="53" spans="3:10" s="1" customFormat="1">
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-    </row>
-    <row r="54" spans="3:10" s="1" customFormat="1">
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="3:10" s="1" customFormat="1">
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-    </row>
-    <row r="56" spans="3:10" s="1" customFormat="1">
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-    </row>
-    <row r="57" spans="3:10" s="1" customFormat="1">
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-    </row>
-    <row r="58" spans="3:10" s="1" customFormat="1">
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-    </row>
-    <row r="59" spans="3:10" s="1" customFormat="1">
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-    </row>
-    <row r="60" spans="3:10" s="1" customFormat="1">
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-    </row>
-    <row r="61" spans="3:10" s="1" customFormat="1">
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-    </row>
-    <row r="62" spans="3:10" s="1" customFormat="1">
-      <c r="C62" s="11"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-    </row>
-    <row r="63" spans="3:10" s="1" customFormat="1">
-      <c r="C63" s="11"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-    </row>
-    <row r="64" spans="3:10" s="1" customFormat="1">
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-    </row>
-    <row r="65" spans="3:16" s="1" customFormat="1">
-      <c r="C65" s="11"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-    </row>
-    <row r="66" spans="3:16" s="1" customFormat="1">
-      <c r="C66" s="11"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-    </row>
-    <row r="67" spans="3:16" s="1" customFormat="1">
-      <c r="C67" s="11"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-    </row>
-    <row r="68" spans="3:16" s="1" customFormat="1">
-      <c r="C68" s="11"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-    </row>
-    <row r="69" spans="3:16" s="1" customFormat="1">
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-    </row>
-    <row r="70" spans="3:16" ht="15.75">
-      <c r="C70" s="10"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-    </row>
-    <row r="71" spans="3:16" s="1" customFormat="1">
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-    </row>
-    <row r="72" spans="3:16" s="1" customFormat="1">
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-    </row>
-    <row r="73" spans="3:16" s="1" customFormat="1">
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-    </row>
-    <row r="74" spans="3:16" s="1" customFormat="1">
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-    </row>
-    <row r="75" spans="3:16" s="1" customFormat="1">
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-    </row>
-    <row r="76" spans="3:16" s="1" customFormat="1">
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-    </row>
-    <row r="77" spans="3:16" s="1" customFormat="1">
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-    </row>
-    <row r="78" spans="3:16" s="1" customFormat="1">
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-    </row>
-    <row r="79" spans="3:16" s="1" customFormat="1" ht="15.75">
-      <c r="H79" s="5"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="5"/>
-    </row>
-    <row r="80" spans="3:16" s="1" customFormat="1">
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-    </row>
-    <row r="81" spans="8:10" s="1" customFormat="1">
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-    </row>
-    <row r="82" spans="8:10" s="1" customFormat="1">
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/input/resources/source-data/capstatements-spreadsheets/alert-initiator.xlsx
+++ b/input/resources/source-data/capstatements-spreadsheets/alert-initiator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-Notifications\input\resources\source-data\capstatements-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE5B36C-E286-435C-AF95-8A3BDC8CA479}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934A80B4-5774-42E1-ADE1-15790E928431}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="660" windowWidth="25200" windowHeight="13425" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="765" yWindow="660" windowWidth="25200" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="156">
   <si>
     <t>Element</t>
   </si>
@@ -546,6 +546,12 @@
   </si>
   <si>
     <t>!GraphDefinition</t>
+  </si>
+  <si>
+    <t>doc_Coverage</t>
+  </si>
+  <si>
+    <t>**SHALL** support  the `iterate` and `*` modifiers for the `_include` search parameter</t>
   </si>
 </sst>
 </file>
@@ -1019,15 +1025,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FE7B3C-655A-420A-A582-37B1D34DD578}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1035,15 +1041,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>134</v>
       </c>
@@ -1051,7 +1058,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>136</v>
       </c>
@@ -1059,7 +1066,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>138</v>
       </c>
@@ -1067,7 +1074,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>140</v>
       </c>
@@ -1075,7 +1082,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>142</v>
       </c>
@@ -1083,7 +1090,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>144</v>
       </c>
@@ -2014,7 +2021,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2299,11 +2306,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G14" sqref="G14"/>
+      <selection pane="topRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2312,13 +2319,14 @@
     <col min="2" max="2" width="37.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2332,34 +2340,37 @@
         <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2372,14 +2383,14 @@
       <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="F2" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2393,13 +2404,16 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -2412,14 +2426,14 @@
       <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -2432,14 +2446,14 @@
       <c r="D5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="F5" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2452,14 +2466,14 @@
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -2472,14 +2486,14 @@
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2492,14 +2506,14 @@
       <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="F8" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="G8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2512,14 +2526,14 @@
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="G9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2532,10 +2546,10 @@
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="F10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2584,11 +2598,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AB93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C90" sqref="C90"/>
+      <selection pane="bottomRight" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>

--- a/input/resources/source-data/capstatements-spreadsheets/alert-initiator.xlsx
+++ b/input/resources/source-data/capstatements-spreadsheets/alert-initiator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-Notifications\input\resources\source-data\capstatements-spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-Alerts\input\resources\source-data\capstatements-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934A80B4-5774-42E1-ADE1-15790E928431}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFAA214-D9A2-4D3F-A3B3-B98FF403C286}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="660" windowWidth="25200" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37935" yWindow="1320" windowWidth="31155" windowHeight="15435" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="155">
   <si>
     <t>Element</t>
   </si>
@@ -360,9 +360,6 @@
     <t>fhirVersion</t>
   </si>
   <si>
-    <t>This CapabilityStatement describes the expected capabilities of a client that is capable of sending a Da Vinci Unsolicited Notification transacted with the `$process-message` operation.</t>
-  </si>
-  <si>
     <t>Da Vinci Notifications Bundle Profile</t>
   </si>
   <si>
@@ -450,8 +447,101 @@
     <t>process-message</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/notifications-messageheader</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/notifications-bundle</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/admit-notification-messageheader</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/discharge-notification-messageheader</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/admit-discharge-notification-condition</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/admit-discharge-notification-coverage</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/admit-discharge-notification-encounter</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-Notifications/input/</t>
+  </si>
+  <si>
+    <t>packagepath</t>
+  </si>
+  <si>
+    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-Notifications/output/</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>Da Vinci</t>
+  </si>
+  <si>
+    <t>canon</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-alerts/</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>HL7 International - Infrastructure and Messaging Work Group</t>
+  </si>
+  <si>
+    <t>publishersystem</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>publishervalue</t>
+  </si>
+  <si>
+    <t>http://www.hl7.org/Special/committees/inm/index.cfm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|3.1.1</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-alerts/ImplementationGuide/hl7.fhir.us.davinci-alerts|1.0.0</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/notifications-messagedefinition</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/notifications-graphdefinition</t>
+  </si>
+  <si>
+    <t>!MessageDefinition</t>
+  </si>
+  <si>
+    <t>!GraphDefinition</t>
+  </si>
+  <si>
+    <t>doc_Coverage</t>
+  </si>
+  <si>
+    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci Sender when sending Unsolicited Notifications transacted with the `$process-message` in the client mode.</t>
+  </si>
+  <si>
     <t>The Da Vinci Notification Sender **SHALL**:
-1. Support the notification framework defined in this Guide.
+1. Support the notification framework defined in this Guide for the Sender sending notifications.
 1. Implement the RESTful behavior according to the FHIR specification.
 1. Support json source formats for all Da Vinci Notification interactions.
 1. Declare a CapabilityStatement identifying the scenarios, transactions and profiles supported.
@@ -459,99 +549,6 @@
 1. Support the admission/discharge use case defined in this Guide.
 1. Support xml source formats for all Da Vinci Notification interactions.
 1. Identify the Da Vinci or US Core profiles supported as part of the FHIR `meta.profile` attribute for each instance.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/notifications-messageheader</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/notifications-bundle</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/admit-notification-messageheader</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/discharge-notification-messageheader</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/admit-discharge-notification-condition</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/admit-discharge-notification-coverage</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/admit-discharge-notification-encounter</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-Notifications/input/</t>
-  </si>
-  <si>
-    <t>packagepath</t>
-  </si>
-  <si>
-    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-Notifications/output/</t>
-  </si>
-  <si>
-    <t>pre</t>
-  </si>
-  <si>
-    <t>Da Vinci</t>
-  </si>
-  <si>
-    <t>canon</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/</t>
-  </si>
-  <si>
-    <t>publisher</t>
-  </si>
-  <si>
-    <t>HL7 International - Infrastructure and Messaging Work Group</t>
-  </si>
-  <si>
-    <t>publishersystem</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>publishervalue</t>
-  </si>
-  <si>
-    <t>http://www.hl7.org/Special/committees/inm/index.cfm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|3.1.1</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/ImplementationGuide/hl7.fhir.us.davinci-alerts|1.0.0</t>
-  </si>
-  <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
-    <t>4.0.1</t>
-  </si>
-  <si>
-    <t>!http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/notifications-messagedefinition</t>
-  </si>
-  <si>
-    <t>!http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/notifications-graphdefinition</t>
-  </si>
-  <si>
-    <t>!MessageDefinition</t>
-  </si>
-  <si>
-    <t>!GraphDefinition</t>
-  </si>
-  <si>
-    <t>doc_Coverage</t>
-  </si>
-  <si>
-    <t>**SHALL** support  the `iterate` and `*` modifiers for the `_include` search parameter</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FE7B3C-655A-420A-A582-37B1D34DD578}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1043,59 +1040,59 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1671,7 +1668,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1693,7 +1690,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1">
@@ -1701,7 +1698,7 @@
         <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1">
@@ -1709,7 +1706,7 @@
         <v>93</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" customHeight="1">
@@ -1717,7 +1714,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1725,7 +1722,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1741,7 +1738,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="103.5" customHeight="1">
@@ -1786,7 +1783,7 @@
         <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -1829,25 +1826,25 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -1858,84 +1855,84 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>54</v>
@@ -1947,16 +1944,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -2111,7 +2108,7 @@
     </row>
     <row r="2" spans="1:23" ht="15.75" thickTop="1">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
@@ -2127,7 +2124,7 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>54</v>
@@ -2135,7 +2132,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>54</v>
@@ -2144,13 +2141,13 @@
     </row>
     <row r="6" spans="1:23" ht="45">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="45">
@@ -2161,73 +2158,73 @@
         <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="45">
       <c r="A8" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="45">
       <c r="A9" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="45">
       <c r="A10" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="45">
       <c r="A11" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="45">
       <c r="A12" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="45">
       <c r="A13" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="20:23" ht="18">
@@ -2280,19 +2277,19 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1">
       <c r="A2" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2308,9 +2305,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E5" sqref="E5"/>
+      <selection pane="topRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2331,25 +2328,25 @@
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>64</v>
@@ -2402,9 +2399,6 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>26</v>

--- a/input/resources/source-data/capstatements-spreadsheets/alert-initiator.xlsx
+++ b/input/resources/source-data/capstatements-spreadsheets/alert-initiator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-Alerts\input\resources\source-data\capstatements-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFAA214-D9A2-4D3F-A3B3-B98FF403C286}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729A819D-928F-4E8E-B84C-A0223DAEA101}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37935" yWindow="1320" windowWidth="31155" windowHeight="15435" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -381,15 +381,6 @@
     <t>Da Vinci Discharge Notification MessageHeader Profile</t>
   </si>
   <si>
-    <t>Da Vinci Admit/Discharge Notification Condition Profile</t>
-  </si>
-  <si>
-    <t>Da Vinci Admit/Discharge Notification Coverage Profile</t>
-  </si>
-  <si>
-    <t>​Da Vinci Admit/Discharge Notification Encounter Profile</t>
-  </si>
-  <si>
     <t>MessageHeader</t>
   </si>
   <si>
@@ -457,15 +448,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/discharge-notification-messageheader</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/admit-discharge-notification-condition</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/admit-discharge-notification-coverage</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/admit-discharge-notification-encounter</t>
   </si>
   <si>
     <t>source</t>
@@ -549,6 +531,24 @@
 1. Support the admission/discharge use case defined in this Guide.
 1. Support xml source formats for all Da Vinci Notification interactions.
 1. Identify the Da Vinci or US Core profiles supported as part of the FHIR `meta.profile` attribute for each instance.</t>
+  </si>
+  <si>
+    <t>Da Vinci Admit/Transfer/Discharge Notification Condition Profile</t>
+  </si>
+  <si>
+    <t>Da Vinci Admit/Transfer/Discharge Notification Coverage Profile</t>
+  </si>
+  <si>
+    <t>​Da Vinci Admit/Transfer/Discharge Notification Encounter Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/adt-notification-condition</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/adt-notification-coverage</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/adt-notification-encounter</t>
   </si>
 </sst>
 </file>
@@ -1040,59 +1040,59 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1698,7 +1698,7 @@
         <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1">
@@ -1706,7 +1706,7 @@
         <v>93</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" customHeight="1">
@@ -1714,7 +1714,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1722,7 +1722,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1738,7 +1738,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="103.5" customHeight="1">
@@ -1783,7 +1783,7 @@
         <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -1798,8 +1798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
         <v>96</v>
@@ -1835,13 +1835,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>94</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>97</v>
@@ -1864,13 +1864,13 @@
         <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>98</v>
@@ -1879,12 +1879,12 @@
         <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>99</v>
@@ -1893,13 +1893,13 @@
         <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>100</v>
@@ -1908,31 +1908,31 @@
         <v>54</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>54</v>
@@ -1944,16 +1944,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="2" spans="1:23" ht="15.75" thickTop="1">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>54</v>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>54</v>
@@ -2141,13 +2141,13 @@
     </row>
     <row r="6" spans="1:23" ht="45">
       <c r="A6" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="45">
@@ -2158,73 +2158,73 @@
         <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="45">
       <c r="A8" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="45">
       <c r="A9" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="45">
       <c r="A10" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="45">
       <c r="A11" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="45">
       <c r="A12" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="45">
       <c r="A13" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="20:23" ht="18">
@@ -2277,19 +2277,19 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1">
       <c r="A2" s="15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2305,7 +2305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C17" sqref="C17"/>
     </sheetView>
@@ -2328,25 +2328,25 @@
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>64</v>

--- a/input/resources/source-data/capstatements-spreadsheets/alert-initiator.xlsx
+++ b/input/resources/source-data/capstatements-spreadsheets/alert-initiator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-Alerts\input\resources\source-data\capstatements-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729A819D-928F-4E8E-B84C-A0223DAEA101}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397FD8DC-36BB-4427-8AE7-3FCECA71F029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47820" yWindow="5565" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="158">
   <si>
     <t>Element</t>
   </si>
@@ -453,13 +453,7 @@
     <t>source</t>
   </si>
   <si>
-    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-Notifications/input/</t>
-  </si>
-  <si>
     <t>packagepath</t>
-  </si>
-  <si>
-    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-Notifications/output/</t>
   </si>
   <si>
     <t>pre</t>
@@ -549,6 +543,21 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/adt-notification-encounter</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/transfer-notification-messageheader</t>
+  </si>
+  <si>
+    <t>Da Vinci Transfer Notification MessageHeader Profile</t>
+  </si>
+  <si>
+    <t>profile_conf</t>
+  </si>
+  <si>
+    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-Alerts/output/</t>
+  </si>
+  <si>
+    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-Alerts/input/</t>
   </si>
 </sst>
 </file>
@@ -1024,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FE7B3C-655A-420A-A582-37B1D34DD578}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1043,56 +1052,56 @@
         <v>124</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1698,7 +1707,7 @@
         <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1">
@@ -1706,7 +1715,7 @@
         <v>93</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" customHeight="1">
@@ -1714,7 +1723,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1722,7 +1731,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1738,7 +1747,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="103.5" customHeight="1">
@@ -1783,7 +1792,7 @@
         <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -1798,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1855,7 +1864,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>97</v>
@@ -1870,7 +1879,7 @@
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>98</v>
@@ -1882,7 +1891,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
         <v>122</v>
       </c>
@@ -1895,14 +1904,13 @@
       <c r="D6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>54</v>
@@ -1910,55 +1918,62 @@
       <c r="D7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1">
+      <c r="A11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6">
       <c r="F12" s="1"/>
@@ -2012,13 +2027,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2026,16 +2041,18 @@
     <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="49.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="12" width="17.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" style="1" customWidth="1"/>
-    <col min="14" max="17" width="17.42578125" style="1" customWidth="1"/>
-    <col min="18" max="19" width="20.42578125" style="1" customWidth="1"/>
-    <col min="20" max="23" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="14" width="17.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" style="1" customWidth="1"/>
+    <col min="16" max="19" width="17.42578125" style="1" customWidth="1"/>
+    <col min="20" max="21" width="20.42578125" style="1" customWidth="1"/>
+    <col min="22" max="25" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18" thickBot="1">
+    <row r="1" spans="1:25" ht="18" thickBot="1">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2045,68 +2062,74 @@
       <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickTop="1">
+    <row r="2" spans="1:25" ht="15.75" thickTop="1">
       <c r="A2" s="1" t="s">
         <v>101</v>
       </c>
@@ -2114,7 +2137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>88</v>
       </c>
@@ -2122,24 +2145,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1">
+    <row r="5" spans="1:25" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:23" ht="45">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:25" ht="45">
       <c r="A6" s="1" t="s">
         <v>102</v>
       </c>
@@ -2150,7 +2175,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="45">
+    <row r="7" spans="1:25" ht="45">
       <c r="A7" s="1" t="s">
         <v>84</v>
       </c>
@@ -2161,7 +2186,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="45">
+    <row r="8" spans="1:25" ht="45">
       <c r="A8" s="1" t="s">
         <v>103</v>
       </c>
@@ -2172,7 +2197,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="45">
+    <row r="9" spans="1:25" ht="45">
       <c r="A9" s="1" t="s">
         <v>105</v>
       </c>
@@ -2183,7 +2208,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="45">
+    <row r="10" spans="1:25" ht="45">
       <c r="A10" s="1" t="s">
         <v>106</v>
       </c>
@@ -2194,7 +2219,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="45">
+    <row r="11" spans="1:25" ht="45">
       <c r="A11" s="1" t="s">
         <v>109</v>
       </c>
@@ -2205,7 +2230,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="45">
+    <row r="12" spans="1:25" ht="45">
       <c r="A12" s="1" t="s">
         <v>107</v>
       </c>
@@ -2216,7 +2241,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="45">
+    <row r="13" spans="1:25" ht="45">
       <c r="A13" s="1" t="s">
         <v>108</v>
       </c>
@@ -2227,13 +2252,13 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="20:23" ht="18">
-      <c r="T36" s="7"/>
+    <row r="36" spans="22:25" ht="18">
       <c r="V36" s="7"/>
-      <c r="W36" s="7"/>
-    </row>
-    <row r="39" spans="20:23" ht="18">
-      <c r="W39" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+    </row>
+    <row r="39" spans="22:25" ht="18">
+      <c r="Y39" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2337,7 +2362,7 @@
         <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>89</v>

--- a/input/resources/source-data/capstatements-spreadsheets/alert-initiator.xlsx
+++ b/input/resources/source-data/capstatements-spreadsheets/alert-initiator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-Alerts\input\resources\source-data\capstatements-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397FD8DC-36BB-4427-8AE7-3FCECA71F029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754B4851-FD9D-4DB3-BE61-32B096C9F2C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47820" yWindow="5565" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45915" yWindow="9810" windowWidth="28800" windowHeight="7800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -33,6 +33,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -74,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="158">
   <si>
     <t>Element</t>
   </si>
@@ -1033,7 +1036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FE7B3C-655A-420A-A582-37B1D34DD578}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -1805,10 +1808,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1975,21 +1978,85 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="11"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="F16" s="1"/>
+    <row r="12" spans="1:6" s="1" customFormat="1">
+      <c r="A12" s="1" t="str">
+        <f t="shared" ref="A12:A16" si="0">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(D12)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f t="shared" ref="B12:B16" si="1">"US Core "&amp;D12&amp;" Profile"</f>
+        <v>US Core Location Profile</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1">
+      <c r="A13" s="1" t="str">
+        <f t="shared" ref="A13" si="2">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(D13)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f t="shared" ref="B13" si="3">"US Core "&amp;D13&amp;" Profile"</f>
+        <v>US Core Organization Profile</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1">
+      <c r="A14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>US Core Patient Profile</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="1" customFormat="1">
+      <c r="A15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>US Core Practitioner Profile</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="1" customFormat="1">
+      <c r="A16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>US Core PractitionerRole Profile</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="F17" s="1"/>
@@ -2010,14 +2077,17 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="11"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6">
+      <c r="A24" s="11"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6">
       <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="F26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/resources/source-data/capstatements-spreadsheets/alert-initiator.xlsx
+++ b/input/resources/source-data/capstatements-spreadsheets/alert-initiator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-Alerts\input\resources\source-data\capstatements-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754B4851-FD9D-4DB3-BE61-32B096C9F2C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00886036-DCFB-4A77-AA55-755878A713C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45915" yWindow="9810" windowWidth="28800" windowHeight="7800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44235" yWindow="8580" windowWidth="28800" windowHeight="7800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="158">
   <si>
     <t>Element</t>
   </si>
@@ -1040,7 +1040,7 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -1810,8 +1810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1873,7 +1873,7 @@
         <v>97</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>104</v>
@@ -1888,7 +1888,7 @@
         <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>116</v>
@@ -1902,7 +1902,7 @@
         <v>99</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>101</v>
@@ -1916,7 +1916,7 @@
         <v>154</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>101</v>
@@ -1930,7 +1930,7 @@
         <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>101</v>
@@ -1944,7 +1944,7 @@
         <v>147</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>102</v>
@@ -1958,7 +1958,7 @@
         <v>148</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>84</v>
@@ -1972,7 +1972,7 @@
         <v>149</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>103</v>
@@ -2099,11 +2099,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1:E1048576"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2111,7 +2111,7 @@
     <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="49.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
@@ -2239,7 +2239,7 @@
         <v>102</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>118</v>
@@ -2250,7 +2250,7 @@
         <v>84</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>118</v>
@@ -2261,7 +2261,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>118</v>
@@ -2272,7 +2272,7 @@
         <v>105</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>118</v>
@@ -2283,7 +2283,7 @@
         <v>106</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>118</v>
@@ -2294,7 +2294,7 @@
         <v>109</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>118</v>
@@ -2316,7 +2316,7 @@
         <v>108</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>118</v>
@@ -2346,7 +2346,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="77.42578125" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
@@ -2401,8 +2401,8 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C17" sqref="C17"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2412,7 +2412,7 @@
     <col min="3" max="3" width="37.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" customWidth="1"/>
@@ -2481,6 +2481,27 @@
       <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
@@ -2501,6 +2522,27 @@
       <c r="G3" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
@@ -2521,6 +2563,27 @@
       <c r="G4" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
@@ -2541,6 +2604,27 @@
       <c r="G5" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
@@ -2561,6 +2645,27 @@
       <c r="G6" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
@@ -2581,6 +2686,27 @@
       <c r="G7" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
@@ -2601,6 +2727,27 @@
       <c r="G8" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="H8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
@@ -2621,6 +2768,27 @@
       <c r="G9" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="H9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
@@ -2639,6 +2807,27 @@
         <v>26</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2656,10 +2845,10 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">

--- a/input/resources/source-data/capstatements-spreadsheets/alert-initiator.xlsx
+++ b/input/resources/source-data/capstatements-spreadsheets/alert-initiator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-Alerts\input\resources\source-data\capstatements-spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-Alerts/input/resources/source-data/capstatements-spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00886036-DCFB-4A77-AA55-755878A713C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D876C58-4480-A545-8513-5045B356D37C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44235" yWindow="8580" windowWidth="28800" windowHeight="7800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -33,9 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -567,7 +565,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1040,9 +1038,9 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1050,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>124</v>
       </c>
@@ -1059,7 +1057,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>125</v>
       </c>
@@ -1067,7 +1065,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>126</v>
       </c>
@@ -1075,7 +1073,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>128</v>
       </c>
@@ -1083,7 +1081,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>130</v>
       </c>
@@ -1091,7 +1089,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>132</v>
       </c>
@@ -1099,7 +1097,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>134</v>
       </c>
@@ -1123,21 +1121,21 @@
       <selection pane="bottomRight" activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="1" customWidth="1"/>
-    <col min="8" max="8" width="84.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="68.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="84.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="68.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -1169,56 +1167,56 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3"/>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4"/>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5"/>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7"/>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="D9"/>
       <c r="E9"/>
@@ -1226,7 +1224,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -1235,7 +1233,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="D11"/>
       <c r="E11"/>
@@ -1243,14 +1241,14 @@
       <c r="H11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12"/>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="D13"/>
       <c r="E13"/>
@@ -1258,27 +1256,27 @@
       <c r="H13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="E16"/>
       <c r="F16"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="D17"/>
       <c r="E17"/>
@@ -1286,14 +1284,14 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19"/>
       <c r="D19"/>
       <c r="E19"/>
@@ -1302,7 +1300,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -1310,20 +1308,20 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="H22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -1331,7 +1329,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
@@ -1339,7 +1337,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
@@ -1347,25 +1345,25 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -1374,7 +1372,7 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -1383,7 +1381,7 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -1392,7 +1390,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -1401,203 +1399,203 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="3:10">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="3:10">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="3:10">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="3:10" s="1" customFormat="1">
+    <row r="36" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="3:10">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="3:10" s="1" customFormat="1">
+    <row r="38" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="3:10" s="1" customFormat="1">
+    <row r="39" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="3:10" s="1" customFormat="1">
+    <row r="40" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="3:10" s="1" customFormat="1" ht="15.75">
+    <row r="41" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H41" s="5"/>
       <c r="I41" s="9"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="3:10" s="1" customFormat="1" ht="15.75">
+    <row r="42" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H42" s="5"/>
       <c r="I42" s="9"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="3:10" s="1" customFormat="1" ht="15.75">
+    <row r="43" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H43" s="5"/>
       <c r="I43" s="9"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="3:10" s="1" customFormat="1">
+    <row r="44" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="3:10" s="1" customFormat="1">
+    <row r="45" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C45" s="11"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="3:10" s="1" customFormat="1">
+    <row r="46" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C46" s="11"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="3:10" s="1" customFormat="1">
+    <row r="47" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C47" s="11"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="3:10" s="1" customFormat="1">
+    <row r="48" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C48" s="11"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="3:10" s="1" customFormat="1">
+    <row r="49" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C49" s="11"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="3:10" s="1" customFormat="1">
+    <row r="50" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="3:10" s="1" customFormat="1">
+    <row r="51" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="3:10" s="1" customFormat="1">
+    <row r="52" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="3:10" s="1" customFormat="1">
+    <row r="53" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="3:10" s="1" customFormat="1">
+    <row r="54" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="3:10" s="1" customFormat="1">
+    <row r="55" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="3:10" s="1" customFormat="1">
+    <row r="56" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="3:10" s="1" customFormat="1">
+    <row r="57" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="3:10" s="1" customFormat="1">
+    <row r="58" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="3:10" s="1" customFormat="1">
+    <row r="59" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="3:10" s="1" customFormat="1">
+    <row r="60" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="3:10" s="1" customFormat="1">
+    <row r="61" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="3:10" s="1" customFormat="1">
+    <row r="62" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C62" s="11"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="3:10" s="1" customFormat="1">
+    <row r="63" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C63" s="11"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="3:10" s="1" customFormat="1">
+    <row r="64" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="3:16" s="1" customFormat="1">
+    <row r="65" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C65" s="11"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="3:16" s="1" customFormat="1">
+    <row r="66" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C66" s="11"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="3:16" s="1" customFormat="1">
+    <row r="67" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C67" s="11"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="3:16" s="1" customFormat="1">
+    <row r="68" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C68" s="11"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="3:16" s="1" customFormat="1">
+    <row r="69" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="3:16" ht="15.75">
+    <row r="70" spans="3:16" ht="16" x14ac:dyDescent="0.2">
       <c r="C70" s="10"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
@@ -1609,62 +1607,62 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71" spans="3:16" s="1" customFormat="1">
+    <row r="71" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="3:16" s="1" customFormat="1">
+    <row r="72" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="3:16" s="1" customFormat="1">
+    <row r="73" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="3:16" s="1" customFormat="1">
+    <row r="74" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="3:16" s="1" customFormat="1">
+    <row r="75" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="3:16" s="1" customFormat="1">
+    <row r="76" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="3:16" s="1" customFormat="1">
+    <row r="77" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="3:16" s="1" customFormat="1">
+    <row r="78" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="3:16" s="1" customFormat="1" ht="15.75">
+    <row r="79" spans="3:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H79" s="5"/>
       <c r="I79" s="9"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="3:16" s="1" customFormat="1">
+    <row r="80" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="8:10" s="1" customFormat="1">
+    <row r="81" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="8:10" s="1" customFormat="1">
+    <row r="82" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
@@ -1683,13 +1681,13 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1697,7 +1695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1705,7 +1703,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1">
+    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
@@ -1713,7 +1711,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1">
+    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>93</v>
       </c>
@@ -1721,7 +1719,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" customHeight="1">
+    <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1729,7 +1727,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1737,7 +1735,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1745,7 +1743,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="207.75" customHeight="1">
+    <row r="8" spans="1:2" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1753,7 +1751,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="103.5" customHeight="1">
+    <row r="9" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1774,12 +1772,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="66.28515625" customWidth="1"/>
+    <col min="2" max="2" width="66.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1790,7 +1788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -1814,15 +1812,15 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1836,7 +1834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -1851,7 +1849,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>121</v>
       </c>
@@ -1865,7 +1863,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>140</v>
       </c>
@@ -1880,7 +1878,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1">
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>141</v>
       </c>
@@ -1894,7 +1892,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>122</v>
       </c>
@@ -1908,7 +1906,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1">
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>153</v>
       </c>
@@ -1922,7 +1920,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1">
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>123</v>
       </c>
@@ -1936,7 +1934,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1">
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>150</v>
       </c>
@@ -1950,7 +1948,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1">
+    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>151</v>
       </c>
@@ -1964,7 +1962,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1">
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>152</v>
       </c>
@@ -1978,7 +1976,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1">
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="str">
         <f t="shared" ref="A12:A16" si="0">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(D12)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
@@ -1994,7 +1992,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1">
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="str">
         <f t="shared" ref="A13" si="2">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(D13)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</v>
@@ -2010,7 +2008,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1">
+    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
@@ -2026,7 +2024,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1">
+    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</v>
@@ -2042,7 +2040,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1">
+    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</v>
@@ -2058,35 +2056,35 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F26" s="1"/>
     </row>
   </sheetData>
@@ -2103,26 +2101,26 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="14" width="17.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" style="1" customWidth="1"/>
-    <col min="16" max="19" width="17.42578125" style="1" customWidth="1"/>
-    <col min="20" max="21" width="20.42578125" style="1" customWidth="1"/>
-    <col min="22" max="25" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="17.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5" style="1" customWidth="1"/>
+    <col min="16" max="19" width="17.5" style="1" customWidth="1"/>
+    <col min="20" max="21" width="20.5" style="1" customWidth="1"/>
+    <col min="22" max="25" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18" thickBot="1">
+    <row r="1" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2199,7 +2197,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15.75" thickTop="1">
+    <row r="2" spans="1:25" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>101</v>
       </c>
@@ -2207,7 +2205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>88</v>
       </c>
@@ -2215,7 +2213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>142</v>
       </c>
@@ -2223,7 +2221,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="1" customFormat="1">
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>143</v>
       </c>
@@ -2234,7 +2232,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:25" ht="45">
+    <row r="6" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>102</v>
       </c>
@@ -2245,7 +2243,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="45">
+    <row r="7" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>84</v>
       </c>
@@ -2256,7 +2254,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="45">
+    <row r="8" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>103</v>
       </c>
@@ -2267,7 +2265,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="45">
+    <row r="9" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>105</v>
       </c>
@@ -2278,7 +2276,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="45">
+    <row r="10" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>106</v>
       </c>
@@ -2289,7 +2287,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="45">
+    <row r="11" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>109</v>
       </c>
@@ -2300,34 +2298,34 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="45">
+    <row r="12" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="45">
+    <row r="13" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="22:25" ht="18">
+    <row r="36" spans="22:25" ht="18" x14ac:dyDescent="0.2">
       <c r="V36" s="7"/>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
     </row>
-    <row r="39" spans="22:25" ht="18">
+    <row r="39" spans="22:25" ht="18" x14ac:dyDescent="0.2">
       <c r="Y39" s="7"/>
     </row>
   </sheetData>
@@ -2344,16 +2342,16 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="77.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="77.5" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -2370,7 +2368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1">
+    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>119</v>
       </c>
@@ -2387,7 +2385,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E4" s="2"/>
     </row>
   </sheetData>
@@ -2405,20 +2403,20 @@
       <selection pane="topRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2462,7 +2460,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2503,7 +2501,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2544,7 +2542,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -2585,7 +2583,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -2626,7 +2624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2667,7 +2665,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -2708,7 +2706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2749,7 +2747,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2790,7 +2788,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2845,13 +2843,13 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2863,7 +2861,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C2" s="2"/>
       <c r="G2" s="2"/>
     </row>
@@ -2883,34 +2881,34 @@
       <selection pane="bottomRight" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="36.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="49.7109375" style="1" customWidth="1"/>
-    <col min="21" max="22" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="49.6640625" style="1" customWidth="1"/>
+    <col min="21" max="22" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" style="1" customWidth="1"/>
-    <col min="24" max="24" width="50.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="90.7109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="83.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="38.140625" customWidth="1"/>
+    <col min="24" max="24" width="50.83203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="90.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="83.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18.95" customHeight="1" thickBot="1">
+    <row r="1" spans="1:28" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -2996,29 +2994,29 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="12"/>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="12"/>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA4" s="12"/>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z5" s="5"/>
       <c r="AA5" s="12"/>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="6" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="12"/>
     </row>
-    <row r="7" spans="1:28" ht="18.95" customHeight="1">
+    <row r="7" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7"/>
       <c r="C7" s="6"/>
       <c r="E7"/>
@@ -3028,7 +3026,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="12"/>
     </row>
-    <row r="8" spans="1:28" ht="18.95" customHeight="1">
+    <row r="8" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="C8"/>
       <c r="E8"/>
@@ -3037,7 +3035,7 @@
       <c r="AA8" s="12"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" ht="18.95" customHeight="1">
+    <row r="9" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="C9"/>
       <c r="E9"/>
@@ -3048,7 +3046,7 @@
       <c r="AA9" s="12"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="18.95" customHeight="1">
+    <row r="10" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -3064,7 +3062,7 @@
       <c r="AA10" s="12"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="18.95" customHeight="1">
+    <row r="11" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="C11"/>
       <c r="E11"/>
@@ -3076,7 +3074,7 @@
       <c r="AA11" s="12"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" ht="18.95" customHeight="1">
+    <row r="12" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12"/>
       <c r="C12"/>
       <c r="E12"/>
@@ -3084,7 +3082,7 @@
       <c r="AA12" s="12"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="18.95" customHeight="1">
+    <row r="13" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -3094,7 +3092,7 @@
       <c r="AA13" s="12"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="18.95" customHeight="1">
+    <row r="14" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -3104,12 +3102,12 @@
       <c r="Z14" s="5"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="15" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="12"/>
     </row>
-    <row r="16" spans="1:28" ht="18.95" customHeight="1">
+    <row r="16" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="C16"/>
       <c r="E16"/>
@@ -3117,7 +3115,7 @@
       <c r="AA16" s="12"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="2:28" ht="18.95" customHeight="1">
+    <row r="17" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -3128,7 +3126,7 @@
       <c r="AA17" s="12"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="2:28" ht="18.95" customHeight="1">
+    <row r="18" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -3139,7 +3137,7 @@
       <c r="AA18" s="12"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="2:28" ht="18.95" customHeight="1">
+    <row r="19" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19"/>
       <c r="C19"/>
       <c r="J19"/>
@@ -3149,7 +3147,7 @@
       <c r="AA19" s="12"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="2:28" ht="18.95" customHeight="1">
+    <row r="20" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20"/>
       <c r="C20"/>
       <c r="X20"/>
@@ -3158,7 +3156,7 @@
       <c r="AA20" s="12"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="2:28" ht="18.95" customHeight="1">
+    <row r="21" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -3167,21 +3165,21 @@
       <c r="Z21" s="5"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="2:28" ht="18.95" customHeight="1">
+    <row r="22" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22"/>
       <c r="C22"/>
       <c r="E22"/>
       <c r="Z22"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="2:28" ht="18.95" customHeight="1">
+    <row r="23" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23"/>
       <c r="E23"/>
       <c r="J23" s="6"/>
       <c r="Y23"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="2:28" ht="18.95" customHeight="1">
+    <row r="24" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24"/>
       <c r="C24"/>
       <c r="E24"/>
@@ -3190,7 +3188,7 @@
       <c r="AA24" s="12"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="2:28" ht="18.95" customHeight="1">
+    <row r="25" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25"/>
       <c r="C25"/>
       <c r="E25"/>
@@ -3198,7 +3196,7 @@
       <c r="AA25" s="12"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="2:28" ht="18.95" customHeight="1">
+    <row r="26" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -3209,7 +3207,7 @@
       <c r="AA26" s="12"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="2:28" ht="18.95" customHeight="1">
+    <row r="27" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -3221,304 +3219,304 @@
       <c r="AA27" s="12"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="2:28" ht="18.95" customHeight="1">
+    <row r="28" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28"/>
       <c r="C28"/>
       <c r="J28"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="2:28" ht="18.95" customHeight="1">
+    <row r="29" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29"/>
       <c r="J29"/>
       <c r="X29"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="2:28" ht="18.95" customHeight="1">
+    <row r="30" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30"/>
       <c r="J30"/>
       <c r="X30"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="2:28" ht="18.95" customHeight="1">
+    <row r="31" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31"/>
       <c r="J31"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="2:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="32" spans="2:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="33" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="34" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="35" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA35" s="12"/>
     </row>
-    <row r="36" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="36" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
       <c r="AA36" s="12"/>
     </row>
-    <row r="37" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="37" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z37" s="5"/>
       <c r="AA37" s="12"/>
     </row>
-    <row r="38" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="38" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
       <c r="AA38" s="12"/>
     </row>
-    <row r="39" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="39" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA39" s="12"/>
     </row>
-    <row r="40" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="40" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="41" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="12"/>
     </row>
-    <row r="42" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="42" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z42" s="5"/>
       <c r="AA42" s="12"/>
     </row>
-    <row r="43" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="43" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
       <c r="AA43" s="12"/>
     </row>
-    <row r="44" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="44" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
       <c r="AA44" s="12"/>
     </row>
-    <row r="45" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="45" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA45" s="12"/>
     </row>
-    <row r="46" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="46" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA46" s="12"/>
     </row>
-    <row r="47" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="47" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
       <c r="AA47" s="12"/>
     </row>
-    <row r="48" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="48" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z48" s="5"/>
       <c r="AA48" s="12"/>
     </row>
-    <row r="49" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="49" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
       <c r="AA49" s="12"/>
     </row>
-    <row r="50" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="50" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
       <c r="AA50" s="12"/>
     </row>
-    <row r="51" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="51" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N51" s="14"/>
       <c r="AA51" s="12"/>
     </row>
-    <row r="52" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="52" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
       <c r="AA52" s="12"/>
     </row>
-    <row r="53" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="53" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z53" s="5"/>
       <c r="AA53" s="12"/>
     </row>
-    <row r="54" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="54" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA54" s="12"/>
     </row>
-    <row r="55" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="55" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
       <c r="AA55" s="12"/>
     </row>
-    <row r="56" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="56" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U56" s="7"/>
       <c r="V56" s="7"/>
       <c r="Z56" s="12"/>
       <c r="AA56" s="12"/>
     </row>
-    <row r="57" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="57" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA57" s="12"/>
     </row>
-    <row r="58" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="58" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
       <c r="AA58" s="12"/>
     </row>
-    <row r="59" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="59" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="V59" s="7"/>
       <c r="Z59" s="12"/>
       <c r="AA59" s="12"/>
     </row>
-    <row r="60" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="60" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N60" s="14"/>
       <c r="AA60" s="12"/>
     </row>
-    <row r="61" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="61" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
       <c r="AA61" s="12"/>
     </row>
-    <row r="62" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="62" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z62" s="5"/>
       <c r="AA62" s="12"/>
     </row>
-    <row r="63" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="63" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA63" s="12"/>
     </row>
-    <row r="64" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="64" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
       <c r="AA64" s="12"/>
     </row>
-    <row r="65" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="65" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
       <c r="AA65" s="12"/>
     </row>
-    <row r="66" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="66" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
       <c r="AA66" s="12"/>
     </row>
-    <row r="67" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="67" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
       <c r="AA67" s="12"/>
     </row>
-    <row r="68" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="68" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA68" s="12"/>
     </row>
-    <row r="69" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="69" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z69" s="5"/>
       <c r="AA69" s="12"/>
     </row>
-    <row r="70" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="70" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
       <c r="AA70" s="12"/>
     </row>
-    <row r="71" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="71" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
       <c r="AA71" s="12"/>
     </row>
-    <row r="72" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="72" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA72" s="12"/>
     </row>
-    <row r="73" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="73" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z73" s="5"/>
       <c r="AA73" s="12"/>
     </row>
-    <row r="74" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="74" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
       <c r="AA74" s="12"/>
     </row>
-    <row r="75" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="75" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z75" s="5"/>
       <c r="AA75" s="12"/>
     </row>
-    <row r="76" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="76" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
       <c r="AA76" s="12"/>
     </row>
-    <row r="77" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="77" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z77" s="5"/>
       <c r="AA77" s="12"/>
     </row>
-    <row r="78" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="78" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z78" s="5"/>
       <c r="AA78" s="12"/>
     </row>
-    <row r="79" spans="7:27" ht="18.95" customHeight="1">
+    <row r="79" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="Z79" s="7"/>
       <c r="AA79" s="12"/>
     </row>
-    <row r="80" spans="7:27" ht="18.95" customHeight="1">
+    <row r="80" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="Z80" s="7"/>
       <c r="AA80" s="12"/>
     </row>
-    <row r="81" spans="7:27" ht="18.95" customHeight="1">
+    <row r="81" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="Z81" s="7"/>
       <c r="AA81" s="12"/>
     </row>
-    <row r="82" spans="7:27" ht="18.95" customHeight="1">
+    <row r="82" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="Z82" s="7"/>
       <c r="AA82" s="12"/>
     </row>
-    <row r="83" spans="7:27" ht="18.95" customHeight="1">
+    <row r="83" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="Z83" s="7"/>
       <c r="AA83" s="12"/>
     </row>
-    <row r="84" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="84" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z84" s="7"/>
       <c r="AA84" s="12"/>
     </row>
-    <row r="85" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="85" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z85" s="7"/>
       <c r="AA85" s="12"/>
     </row>
-    <row r="86" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="86" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z86" s="7"/>
       <c r="AA86" s="12"/>
     </row>
-    <row r="87" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="87" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z87" s="7"/>
       <c r="AA87" s="12"/>
     </row>
-    <row r="88" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="88" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z88" s="7"/>
       <c r="AA88" s="12"/>
     </row>
-    <row r="89" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="89" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y89" s="5"/>
       <c r="Z89" s="7"/>
       <c r="AA89" s="12"/>
     </row>
-    <row r="90" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="90" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y90" s="5"/>
       <c r="Z90" s="7"/>
       <c r="AA90" s="12"/>
     </row>
-    <row r="91" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="91" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y91" s="5"/>
       <c r="Z91" s="7"/>
       <c r="AA91" s="12"/>
     </row>
-    <row r="92" spans="7:27" ht="18.95" customHeight="1">
+    <row r="92" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y92" s="5"/>
       <c r="Z92" s="7"/>
       <c r="AA92" s="12"/>
     </row>
-    <row r="93" spans="7:27" ht="18.95" customHeight="1">
+    <row r="93" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y93" s="5"/>
     </row>
   </sheetData>
